--- a/issues-template.xlsx
+++ b/issues-template.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjala\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjala\Downloads\sonar-main\sonar-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9E096A-CF4A-4B8C-BB8E-656EC7A3348E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635AB2DF-BFFB-4A2A-BD6E-C707A05BC41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TCD" sheetId="3" r:id="rId1"/>
-    <sheet name="Issues" sheetId="1" r:id="rId2"/>
+    <sheet name="Resumen" sheetId="3" r:id="rId1"/>
+    <sheet name="Vulnerabilidades" sheetId="1" r:id="rId2"/>
     <sheet name="All" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Unconfirmed" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="Security Hotspots" sheetId="6" r:id="rId5"/>
+    <sheet name="Advertencias de Seguridad" sheetId="6" r:id="rId5"/>
     <sheet name="Metrics" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId7"/>
-    <pivotCache cacheId="14" r:id="rId8"/>
+    <pivotCache cacheId="12" r:id="rId7"/>
+    <pivotCache cacheId="16" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Rule</t>
   </si>
@@ -64,59 +64,62 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>Reglas</t>
+  </si>
+  <si>
+    <t>Mensaje</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Criticidad</t>
+  </si>
+  <si>
+    <t>Lenguaje</t>
+  </si>
+  <si>
+    <t>Fichero</t>
+  </si>
+  <si>
+    <t>Línea</t>
+  </si>
+  <si>
+    <t>Esfuerzo</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>RESUMEN DE LAS DETECCIONES DE LA AUDITORÍA DE CÓDIGO</t>
+  </si>
+  <si>
+    <t>VULNERABILIDADES</t>
+  </si>
+  <si>
     <t>(en blanco)</t>
   </si>
   <si>
     <t>Total general</t>
   </si>
   <si>
+    <t>ADVERTENCIAS DE SEGURIDAD</t>
+  </si>
+  <si>
     <t>Nº de Detecciones</t>
-  </si>
-  <si>
-    <t>VULNERABILIDADES</t>
-  </si>
-  <si>
-    <t>ADVERTENCIAS DE SEGURIDAD</t>
-  </si>
-  <si>
-    <t>Reglas</t>
-  </si>
-  <si>
-    <t>Mensaje</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Criticidad</t>
-  </si>
-  <si>
-    <t>Lenguaje</t>
-  </si>
-  <si>
-    <t>Fichero</t>
-  </si>
-  <si>
-    <t>Línea</t>
-  </si>
-  <si>
-    <t>Esfuerzo</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Prioridad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +255,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +442,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -594,15 +611,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -612,13 +631,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -666,9 +682,6 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -696,6 +709,9 @@
       <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -709,47 +725,47 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -768,62 +784,49 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="--" refreshedDate="45301.373024652778" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF07000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="--" refreshedDate="45327.57461585648" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF07000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="selected"/>
   </cacheSource>
   <cacheFields count="10">
-    <cacheField name="Rule" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="6">
-        <m/>
-        <s v="python:FunctionComplexity" u="1"/>
-        <s v="python:S1066" u="1"/>
-        <s v="python:S134" u="1"/>
-        <s v="python:S107" u="1"/>
-        <s v="python:S125" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Message" numFmtId="4">
-      <sharedItems containsNonDate="0" containsBlank="1" count="7">
-        <m/>
-        <s v="Remove this commented out code." u="1"/>
-        <s v="Function has a complexity of 11 which is greater than 10 authorized." u="1"/>
-        <s v="Function has a complexity of 47 which is greater than 10 authorized." u="1"/>
-        <s v="Function &quot;generate_spaceship&quot; has 11 parameters, which is greater than the 7 authorized." u="1"/>
-        <s v="Refactor this code to not nest more than 3 &quot;if&quot;, &quot;for&quot;, &quot;while&quot;, &quot;try&quot; and &quot;with&quot; statements." u="1"/>
-        <s v="Merge this if statement with the enclosing one." u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Type" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="2">
-        <m/>
-        <s v="CODE_SMELL" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Severity" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="2">
-        <m/>
-        <s v="MAJOR" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Language" numFmtId="0">
+    <cacheField name="Reglas" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="File" numFmtId="0">
+    <cacheField name="Mensaje" numFmtId="4">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tipo" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Criticidad" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Lenguaje" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Fichero" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="Line" numFmtId="0">
+    <cacheField name="Línea" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="Effort" numFmtId="0">
+    <cacheField name="Esfuerzo" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="Status" numFmtId="0">
+    <cacheField name="Estado" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="Comments" numFmtId="0">
+    <cacheField name="Comentarios" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
   </cacheFields>
@@ -836,50 +839,50 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="--" refreshedDate="45301.374712847224" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{9F84B1BF-58AA-4DBE-99C8-4C6043517C25}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="--" refreshedDate="45327.574615972226" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{9F84B1BF-58AA-4DBE-99C8-4C6043517C25}">
   <cacheSource type="worksheet">
     <worksheetSource name="hotspots"/>
   </cacheSource>
   <cacheFields count="11">
-    <cacheField name="Rule" numFmtId="0">
+    <cacheField name="Reglas" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Message" numFmtId="4">
+    <cacheField name="Mensaje" numFmtId="4">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Category" numFmtId="0">
+    <cacheField name="Tipo" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="Priority" numFmtId="0">
+    <cacheField name="Prioridad" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="Severity" numFmtId="0">
+    <cacheField name="Criticidad" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Language" numFmtId="0">
+    <cacheField name="Lenguaje" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="File" numFmtId="0">
+    <cacheField name="Fichero" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="Line" numFmtId="0">
+    <cacheField name="Línea" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="Status" numFmtId="0">
+    <cacheField name="Esfuerzo" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="Resolution" numFmtId="0">
+    <cacheField name="Estado" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="Comments" numFmtId="0">
+    <cacheField name="Comentarios" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
   </cacheFields>
@@ -927,16 +930,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2D6B005-6AAF-4DA2-8A0F-F046773B93B2}" name="TablaDinámica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="ADVERTENCIAS DE SEGURIDAD">
-  <location ref="D3:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2D6B005-6AAF-4DA2-8A0F-F046773B93B2}" name="TablaDinámica1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="ADVERTENCIAS DE SEGURIDAD">
+  <location ref="E3:F8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="2">
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="2">
         <item x="0"/>
         <item t="default"/>
@@ -950,19 +953,101 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="1">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
         <item x="0"/>
+        <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="4">
+    <field x="4"/>
     <field x="5"/>
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Nº de Detecciones" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="synthesis" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="VULNERABILIDADES">
+  <location ref="B3:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="3"/>
     <field x="4"/>
     <field x="0"/>
     <field x="1"/>
@@ -988,104 +1073,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Nº de Detecciones" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="synthesis" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="VULNERABILIDADES">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
-        <item m="1" x="4"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item m="1" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item m="1" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="1">
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="5">
-    <field x="4"/>
-    <field x="2"/>
-    <field x="3"/>
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="3">
-      <x v="5"/>
-    </i>
-    <i r="4">
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Nº de Detecciones" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Nº de Detecciones" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1100,26 +1088,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="selected" displayName="selected" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="selected" displayName="selected" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Reglas" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mensaje" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tipo" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Criticidad" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Lenguaje" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fichero" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Línea" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Esfuerzo" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Estado" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Comentarios" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Reglas" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mensaje" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tipo" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Criticidad" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Lenguaje" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fichero" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Línea" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Esfuerzo" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Estado" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Comentarios" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="all" displayName="all" ref="A1:A2" insertRow="1" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="all" displayName="all" ref="A1:A2" insertRow="1" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:A2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colonne1"/>
@@ -1129,11 +1117,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="unconfirmed" displayName="unconfirmed" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="unconfirmed" displayName="unconfirmed" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Rule"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Message" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Message" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Severity"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Language"/>
@@ -1151,24 +1139,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="hotspots" displayName="hotspots" ref="A1:K2" insertRow="1" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Reglas" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Mensaje" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Tipo" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Prioridad" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Criticidad" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Lenguaje" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Fichero" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Línea" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Esfuerzo" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Estado" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Comentarios" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Reglas" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Mensaje" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Tipo" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Prioridad" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Criticidad" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Lenguaje" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Fichero" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Línea" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Esfuerzo" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Estado" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Comentarios" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="metrics" displayName="metrics" ref="A1:A2" insertRow="1" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="metrics" displayName="metrics" ref="A1:A2" insertRow="1" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:A2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Colonne1"/>
@@ -1465,94 +1453,406 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="pivotTable"/>
-  <dimension ref="A3:E9"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="9"/>
-    </row>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1560,63 +1860,63 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="selectedIssues"/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="63.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" style="10" customWidth="1"/>
-    <col min="7" max="9" width="11.42578125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="10" hidden="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="11"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1645,8 +1945,8 @@
     <col min="16" max="16" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1677,42 +1977,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1725,66 +2025,66 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="63.28515625" style="10" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" style="10" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="10" hidden="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="11"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1810,8 +2110,8 @@
     <col min="16" max="16" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
